--- a/评分表.xlsx
+++ b/评分表.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView windowWidth="16988" windowHeight="13080"/>
   </bookViews>
   <sheets>
-    <sheet name="工作表 1" sheetId="1" r:id="rId4"/>
+    <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="59">
-  <si>
-    <t>表格 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
   <si>
     <t>分值</t>
   </si>
@@ -195,28 +194,179 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="22">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -226,17 +376,203 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="9"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-        <bgColor auto="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -349,74 +685,411 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="60% - Accent6" xfId="1" builtinId="52"/>
+    <cellStyle name="40% - Accent6" xfId="2" builtinId="51"/>
+    <cellStyle name="60% - Accent5" xfId="3" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="4" builtinId="49"/>
+    <cellStyle name="40% - Accent5" xfId="5" builtinId="47"/>
+    <cellStyle name="20% - Accent5" xfId="6" builtinId="46"/>
+    <cellStyle name="60% - Accent4" xfId="7" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="8" builtinId="45"/>
+    <cellStyle name="40% - Accent4" xfId="9" builtinId="43"/>
+    <cellStyle name="Accent4" xfId="10" builtinId="41"/>
+    <cellStyle name="Linked Cell" xfId="11" builtinId="24"/>
+    <cellStyle name="40% - Accent3" xfId="12" builtinId="39"/>
+    <cellStyle name="60% - Accent2" xfId="13" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="14" builtinId="37"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="20% - Accent2" xfId="16" builtinId="34"/>
+    <cellStyle name="Accent2" xfId="17" builtinId="33"/>
+    <cellStyle name="40% - Accent1" xfId="18" builtinId="31"/>
+    <cellStyle name="Accent1" xfId="19" builtinId="29"/>
+    <cellStyle name="Comma[0]" xfId="20" builtinId="6"/>
+    <cellStyle name="Neutral" xfId="21" builtinId="28"/>
+    <cellStyle name="60% - Accent1" xfId="22" builtinId="32"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="20% - Accent4" xfId="24" builtinId="42"/>
+    <cellStyle name="Total" xfId="25" builtinId="25"/>
+    <cellStyle name="Output" xfId="26" builtinId="21"/>
+    <cellStyle name="Currency" xfId="27" builtinId="4"/>
+    <cellStyle name="20% - Accent3" xfId="28" builtinId="38"/>
+    <cellStyle name="Note" xfId="29" builtinId="10"/>
+    <cellStyle name="Input" xfId="30" builtinId="20"/>
+    <cellStyle name="Heading 4" xfId="31" builtinId="19"/>
+    <cellStyle name="Calculation" xfId="32" builtinId="22"/>
+    <cellStyle name="Good" xfId="33" builtinId="26"/>
+    <cellStyle name="Heading 3" xfId="34" builtinId="18"/>
+    <cellStyle name="CExplanatory Text" xfId="35" builtinId="53"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Currency[0]" xfId="37" builtinId="7"/>
+    <cellStyle name="Heading 1" xfId="38" builtinId="16"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50"/>
+    <cellStyle name="Title" xfId="40" builtinId="15"/>
+    <cellStyle name="Warning Text" xfId="41" builtinId="11"/>
+    <cellStyle name="20% - Accent1" xfId="42" builtinId="30"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9"/>
+    <cellStyle name="Heading 2" xfId="45" builtinId="17"/>
+    <cellStyle name="Comma" xfId="46" builtinId="3"/>
+    <cellStyle name="Check Cell" xfId="47" builtinId="23"/>
+    <cellStyle name="Percent" xfId="48" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffbdc0bf"/>
-      <rgbColor rgb="ffa5a5a5"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00BDC0BF"/>
+      <rgbColor rgb="00A5A5A5"/>
+      <rgbColor rgb="003F3F3F"/>
+      <rgbColor rgb="00DBDBDB"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -542,7 +1215,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -551,7 +1224,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -560,7 +1233,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="50000"/>
               </a:srgbClr>
@@ -624,8 +1297,8 @@
     <a:spDef>
       <a:spPr>
         <a:blipFill rotWithShape="1">
-          <a:blip r:embed="rId1"/>
-          <a:srcRect l="0" t="0" r="0" b="0"/>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+          <a:srcRect/>
           <a:tile tx="0" ty="0" sx="100000" sy="100000" flip="none" algn="tl"/>
         </a:blipFill>
         <a:ln w="12700" cap="flat">
@@ -633,13 +1306,12 @@
           <a:miter lim="400000"/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="25400" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="25400" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="50000"/>
             </a:srgbClr>
           </a:outerShdw>
         </a:effectLst>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
@@ -659,8 +1331,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -668,7 +1339,7 @@
               <a:srgbClr val="FFFFFF"/>
             </a:solidFill>
             <a:effectLst>
-              <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="25400" dist="23998" dir="2700000">
+              <a:outerShdw blurRad="25400" dist="23998" dir="2700000" rotWithShape="0">
                 <a:srgbClr val="000000">
                   <a:alpha val="31034"/>
                 </a:srgbClr>
@@ -695,8 +1366,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -721,8 +1391,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -747,8 +1416,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -773,8 +1441,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -799,8 +1466,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -825,8 +1491,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -851,8 +1516,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -877,8 +1541,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -903,8 +1566,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -917,9 +1579,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -933,8 +1601,6 @@
           <a:prstDash val="solid"/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
@@ -954,8 +1620,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -980,8 +1645,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1006,8 +1670,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1032,8 +1695,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1058,8 +1720,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1084,8 +1745,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,8 +1770,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1136,8 +1795,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1162,8 +1820,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1188,8 +1845,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1202,9 +1858,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1215,8 +1877,6 @@
           <a:noFill/>
           <a:miter lim="400000"/>
         </a:ln>
-        <a:effectLst/>
-        <a:sp3d/>
       </a:spPr>
       <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
@@ -1236,8 +1896,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1266,8 +1925,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,8 +1950,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1318,8 +1975,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1344,8 +2000,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1370,8 +2025,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1396,8 +2050,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1422,8 +2075,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1448,8 +2100,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1474,8 +2125,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1488,426 +2138,420 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:E23"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="18" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="16.3300970873786" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="16.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="16.3516" style="1" customWidth="1"/>
-    <col min="4" max="4" width="16.3516" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.3516" style="1" customWidth="1"/>
-    <col min="6" max="256" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.3495145631068" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="31" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" ht="36.55" customHeight="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" ht="36.55" customHeight="1">
-      <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="C2" t="s" s="4">
-        <v>3</v>
-      </c>
-      <c r="D2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="3">
+    <row r="2" ht="20.55" customHeight="1" spans="1:5">
+      <c r="A2" s="4">
+        <v>100</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="C2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" ht="20.55" customHeight="1">
-      <c r="A3" s="5">
-        <v>100</v>
-      </c>
-      <c r="B3" t="s" s="6">
-        <v>6</v>
-      </c>
-      <c r="C3" t="s" s="7">
-        <v>7</v>
-      </c>
-      <c r="D3" t="s" s="7">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s" s="7">
+    <row r="3" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A3" s="7">
+        <v>95</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>9</v>
       </c>
+      <c r="C3" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" ht="20.35" customHeight="1">
-      <c r="A4" s="8">
-        <v>95</v>
-      </c>
-      <c r="B4" t="s" s="9">
+    <row r="4" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A4" s="7">
+        <v>90</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A5" s="7">
+        <v>85</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A6" s="7">
+        <v>80</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A7" s="7">
+        <v>75</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A8" s="7">
+        <v>70</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A9" s="7">
+        <v>65</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A10" s="7">
+        <v>60</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A11" s="7">
+        <v>55</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A12" s="7">
+        <v>50</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A13" s="7">
+        <v>45</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A14" s="7">
+        <v>40</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="15" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A15" s="7">
+        <v>35</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A16" s="7">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A17" s="7">
+        <v>25</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A18" s="7">
+        <v>20</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A19" s="7">
+        <v>15</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="20" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A20" s="7">
         <v>10</v>
       </c>
-      <c r="C4" t="s" s="10">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s" s="10">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s" s="10">
-        <v>13</v>
+      <c r="B20" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>53</v>
       </c>
     </row>
-    <row r="5" ht="20.35" customHeight="1">
-      <c r="A5" s="8">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s" s="9">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s" s="10">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s" s="10">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="10">
-        <v>17</v>
+    <row r="21" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A21" s="7">
+        <v>5</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>55</v>
       </c>
     </row>
-    <row r="6" ht="20.35" customHeight="1">
-      <c r="A6" s="8">
-        <v>85</v>
-      </c>
-      <c r="B6" t="s" s="9">
-        <v>18</v>
-      </c>
-      <c r="C6" t="s" s="10">
-        <v>19</v>
-      </c>
-      <c r="D6" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s" s="10">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" ht="20.35" customHeight="1">
-      <c r="A7" s="8">
-        <v>80</v>
-      </c>
-      <c r="B7" t="s" s="9">
-        <v>22</v>
-      </c>
-      <c r="C7" t="s" s="10">
-        <v>23</v>
-      </c>
-      <c r="D7" t="s" s="10">
-        <v>17</v>
-      </c>
-      <c r="E7" t="s" s="10">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" ht="20.35" customHeight="1">
-      <c r="A8" s="8">
-        <v>75</v>
-      </c>
-      <c r="B8" t="s" s="9">
-        <v>25</v>
-      </c>
-      <c r="C8" t="s" s="10">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s" s="10">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s" s="10">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" ht="20.35" customHeight="1">
-      <c r="A9" s="8">
-        <v>70</v>
-      </c>
-      <c r="B9" t="s" s="9">
-        <v>27</v>
-      </c>
-      <c r="C9" t="s" s="10">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s" s="10">
-        <v>24</v>
-      </c>
-      <c r="E9" t="s" s="10">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" ht="20.35" customHeight="1">
-      <c r="A10" s="8">
-        <v>65</v>
-      </c>
-      <c r="B10" t="s" s="9">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s" s="10">
-        <v>30</v>
-      </c>
-      <c r="D10" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="E10" t="s" s="10">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="11" ht="20.35" customHeight="1">
-      <c r="A11" s="8">
-        <v>60</v>
-      </c>
-      <c r="B11" t="s" s="9">
-        <v>32</v>
-      </c>
-      <c r="C11" t="s" s="10">
-        <v>33</v>
-      </c>
-      <c r="D11" t="s" s="10">
-        <v>28</v>
-      </c>
-      <c r="E11" t="s" s="10">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="12" ht="20.35" customHeight="1">
-      <c r="A12" s="8">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s" s="9">
-        <v>35</v>
-      </c>
-      <c r="C12" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s" s="10">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s" s="10">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" ht="20.35" customHeight="1">
-      <c r="A13" s="8">
+    <row r="22" ht="20.35" customHeight="1" spans="1:5">
+      <c r="A22" s="7">
+        <v>0</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B13" t="s" s="9">
-        <v>37</v>
-      </c>
-      <c r="C13" t="s" s="10">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s" s="10">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s" s="10">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" ht="20.35" customHeight="1">
-      <c r="A14" s="8">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s" s="9">
-        <v>39</v>
-      </c>
-      <c r="C14" t="s" s="10">
-        <v>32</v>
-      </c>
-      <c r="D14" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s" s="10">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="15" ht="20.35" customHeight="1">
-      <c r="A15" s="8">
-        <v>40</v>
-      </c>
-      <c r="B15" t="s" s="9">
-        <v>41</v>
-      </c>
-      <c r="C15" t="s" s="10">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s" s="10">
-        <v>38</v>
-      </c>
-      <c r="E15" t="s" s="10">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="16" ht="20.35" customHeight="1">
-      <c r="A16" s="8">
-        <v>35</v>
-      </c>
-      <c r="B16" t="s" s="9">
-        <v>43</v>
-      </c>
-      <c r="C16" t="s" s="10">
-        <v>37</v>
-      </c>
-      <c r="D16" t="s" s="10">
-        <v>40</v>
-      </c>
-      <c r="E16" t="s" s="10">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" ht="20.35" customHeight="1">
-      <c r="A17" s="8">
-        <v>30</v>
-      </c>
-      <c r="B17" t="s" s="9">
-        <v>45</v>
-      </c>
-      <c r="C17" t="s" s="10">
-        <v>39</v>
-      </c>
-      <c r="D17" t="s" s="10">
-        <v>42</v>
-      </c>
-      <c r="E17" t="s" s="10">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" ht="20.35" customHeight="1">
-      <c r="A18" s="8">
-        <v>25</v>
-      </c>
-      <c r="B18" t="s" s="9">
-        <v>47</v>
-      </c>
-      <c r="C18" t="s" s="10">
-        <v>41</v>
-      </c>
-      <c r="D18" t="s" s="10">
-        <v>44</v>
-      </c>
-      <c r="E18" t="s" s="10">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" ht="20.35" customHeight="1">
-      <c r="A19" s="8">
-        <v>20</v>
-      </c>
-      <c r="B19" t="s" s="9">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s" s="10">
-        <v>43</v>
-      </c>
-      <c r="D19" t="s" s="10">
-        <v>46</v>
-      </c>
-      <c r="E19" t="s" s="10">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" ht="20.35" customHeight="1">
-      <c r="A20" s="8">
-        <v>15</v>
-      </c>
-      <c r="B20" t="s" s="9">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s" s="10">
-        <v>45</v>
-      </c>
-      <c r="D20" t="s" s="10">
-        <v>48</v>
-      </c>
-      <c r="E20" t="s" s="10">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="21" ht="20.35" customHeight="1">
-      <c r="A21" s="8">
-        <v>10</v>
-      </c>
-      <c r="B21" t="s" s="9">
+      <c r="D22" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C21" t="s" s="10">
-        <v>47</v>
-      </c>
-      <c r="D21" t="s" s="10">
-        <v>50</v>
-      </c>
-      <c r="E21" t="s" s="10">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" ht="20.35" customHeight="1">
-      <c r="A22" s="8">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s" s="9">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s" s="10">
-        <v>49</v>
-      </c>
-      <c r="D22" t="s" s="10">
-        <v>52</v>
-      </c>
-      <c r="E22" t="s" s="10">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="23" ht="20.35" customHeight="1">
-      <c r="A23" s="8">
-        <v>0</v>
-      </c>
-      <c r="B23" t="s" s="9">
+      <c r="E22" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="C23" t="s" s="10">
-        <v>51</v>
-      </c>
-      <c r="D23" t="s" s="10">
-        <v>54</v>
-      </c>
-      <c r="E23" t="s" s="10">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277777777777778" footer="0.277777777777778"/>
+  <pageSetup paperSize="1" orientation="portrait" useFirstPageNumber="1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/评分表.xlsx
+++ b/评分表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView windowWidth="16988" windowHeight="13080"/>
+    <workbookView windowWidth="16095" windowHeight="25020"/>
   </bookViews>
   <sheets>
     <sheet name="工作表 1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56">
   <si>
     <t>分值</t>
   </si>
@@ -31,160 +31,154 @@
     <t>半场来回运球上篮#女#时间</t>
   </si>
   <si>
-    <t>3”21</t>
-  </si>
-  <si>
-    <t>3”06</t>
-  </si>
-  <si>
-    <t>19’</t>
-  </si>
-  <si>
-    <t>23’</t>
-  </si>
-  <si>
-    <t>3”28</t>
-  </si>
-  <si>
-    <t>3”13</t>
-  </si>
-  <si>
-    <t>21’5</t>
-  </si>
-  <si>
-    <t>25’5</t>
-  </si>
-  <si>
-    <t>3”35</t>
-  </si>
-  <si>
-    <t>3”20</t>
-  </si>
-  <si>
-    <t>24’</t>
-  </si>
-  <si>
-    <t>28’</t>
-  </si>
-  <si>
-    <t>3”40</t>
-  </si>
-  <si>
-    <t>3”25</t>
-  </si>
-  <si>
-    <t>26’</t>
-  </si>
-  <si>
-    <t>30’</t>
-  </si>
-  <si>
-    <t>3”45</t>
-  </si>
-  <si>
-    <t>3”30</t>
-  </si>
-  <si>
-    <t>32’</t>
+    <t>3"21</t>
+  </si>
+  <si>
+    <t>3"06</t>
+  </si>
+  <si>
+    <t>19'</t>
+  </si>
+  <si>
+    <t>23'</t>
+  </si>
+  <si>
+    <t>3"28</t>
+  </si>
+  <si>
+    <t>3"13</t>
+  </si>
+  <si>
+    <t>21'5</t>
+  </si>
+  <si>
+    <t>25'5</t>
+  </si>
+  <si>
+    <t>3"35</t>
+  </si>
+  <si>
+    <t>3"20</t>
+  </si>
+  <si>
+    <t>24'</t>
+  </si>
+  <si>
+    <t>28'</t>
+  </si>
+  <si>
+    <t>3"40</t>
+  </si>
+  <si>
+    <t>3"25</t>
+  </si>
+  <si>
+    <t>26'</t>
+  </si>
+  <si>
+    <t>30'</t>
+  </si>
+  <si>
+    <t>3"45</t>
+  </si>
+  <si>
+    <t>3"30</t>
+  </si>
+  <si>
+    <t>32'</t>
   </si>
   <si>
     <t>3"50</t>
   </si>
   <si>
-    <t>34’</t>
-  </si>
-  <si>
-    <t>3”55</t>
-  </si>
-  <si>
-    <t>36’</t>
-  </si>
-  <si>
-    <t>4”00</t>
-  </si>
-  <si>
-    <t>3"45</t>
-  </si>
-  <si>
-    <t>38’</t>
-  </si>
-  <si>
-    <t>4”05</t>
-  </si>
-  <si>
-    <t>3”50</t>
-  </si>
-  <si>
-    <t>40’</t>
-  </si>
-  <si>
-    <t>4”10</t>
-  </si>
-  <si>
-    <t>42’</t>
-  </si>
-  <si>
-    <t>4”15</t>
-  </si>
-  <si>
-    <t>44’</t>
-  </si>
-  <si>
-    <t>4”20</t>
-  </si>
-  <si>
-    <t>46’</t>
-  </si>
-  <si>
-    <t>4”25</t>
-  </si>
-  <si>
-    <t>48’</t>
-  </si>
-  <si>
-    <t>4”30</t>
-  </si>
-  <si>
-    <t>50’</t>
-  </si>
-  <si>
-    <t>4”35</t>
-  </si>
-  <si>
-    <t>52’</t>
-  </si>
-  <si>
-    <t>4”40</t>
-  </si>
-  <si>
-    <t>54’</t>
-  </si>
-  <si>
-    <t>4”45</t>
-  </si>
-  <si>
-    <t>56’</t>
-  </si>
-  <si>
-    <t>4”50</t>
-  </si>
-  <si>
-    <t>58’</t>
-  </si>
-  <si>
-    <t>4”55</t>
-  </si>
-  <si>
-    <t>60’</t>
-  </si>
-  <si>
-    <t>5”00</t>
-  </si>
-  <si>
-    <t>1”2</t>
-  </si>
-  <si>
-    <t>5”05</t>
+    <t>34'</t>
+  </si>
+  <si>
+    <t>3"55</t>
+  </si>
+  <si>
+    <t>36'</t>
+  </si>
+  <si>
+    <t>4"00</t>
+  </si>
+  <si>
+    <t>38'</t>
+  </si>
+  <si>
+    <t>4"05</t>
+  </si>
+  <si>
+    <t>40'</t>
+  </si>
+  <si>
+    <t>4"10</t>
+  </si>
+  <si>
+    <t>42'</t>
+  </si>
+  <si>
+    <t>4"15</t>
+  </si>
+  <si>
+    <t>44'</t>
+  </si>
+  <si>
+    <t>4"20</t>
+  </si>
+  <si>
+    <t>46'</t>
+  </si>
+  <si>
+    <t>4"25</t>
+  </si>
+  <si>
+    <t>48'</t>
+  </si>
+  <si>
+    <t>4"30</t>
+  </si>
+  <si>
+    <t>50'</t>
+  </si>
+  <si>
+    <t>4"35</t>
+  </si>
+  <si>
+    <t>52'</t>
+  </si>
+  <si>
+    <t>4"40</t>
+  </si>
+  <si>
+    <t>54'</t>
+  </si>
+  <si>
+    <t>4"45</t>
+  </si>
+  <si>
+    <t>56'</t>
+  </si>
+  <si>
+    <t>4"50</t>
+  </si>
+  <si>
+    <t>58'</t>
+  </si>
+  <si>
+    <t>4"55</t>
+  </si>
+  <si>
+    <t>60'</t>
+  </si>
+  <si>
+    <t>5"00</t>
+  </si>
+  <si>
+    <t>1"2</t>
+  </si>
+  <si>
+    <t>5"05</t>
   </si>
   <si>
     <t>1"4</t>
@@ -197,8 +191,8 @@
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -215,6 +209,29 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -223,8 +240,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -245,9 +287,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,23 +303,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -291,55 +330,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,14 +346,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Helvetica"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -387,25 +381,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,31 +435,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -453,121 +561,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -690,16 +684,22 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -715,6 +715,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,21 +758,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -788,148 +782,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2163,16 +2157,16 @@
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.3300970873786" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="256" width="16.3495145631068" style="1" customWidth="1"/>
+    <col min="1" max="256" width="16.352380952381" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="36.55" customHeight="1" spans="1:5">
@@ -2319,13 +2313,13 @@
         <v>28</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>25</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" ht="20.35" customHeight="1" spans="1:5">
@@ -2333,16 +2327,16 @@
         <v>60</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>27</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" ht="20.35" customHeight="1" spans="1:5">
@@ -2350,16 +2344,16 @@
         <v>55</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>26</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" ht="20.35" customHeight="1" spans="1:5">
@@ -2367,16 +2361,16 @@
         <v>50</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" ht="20.35" customHeight="1" spans="1:5">
@@ -2384,16 +2378,16 @@
         <v>45</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" ht="20.35" customHeight="1" spans="1:5">
@@ -2401,16 +2395,16 @@
         <v>40</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" ht="20.35" customHeight="1" spans="1:5">
@@ -2418,16 +2412,16 @@
         <v>35</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" ht="20.35" customHeight="1" spans="1:5">
@@ -2435,16 +2429,16 @@
         <v>30</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="17" ht="20.35" customHeight="1" spans="1:5">
@@ -2452,16 +2446,16 @@
         <v>25</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" ht="20.35" customHeight="1" spans="1:5">
@@ -2469,16 +2463,16 @@
         <v>20</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" ht="20.35" customHeight="1" spans="1:5">
@@ -2486,16 +2480,16 @@
         <v>15</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" ht="20.35" customHeight="1" spans="1:5">
@@ -2503,16 +2497,16 @@
         <v>10</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" ht="20.35" customHeight="1" spans="1:5">
@@ -2520,16 +2514,16 @@
         <v>5</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" ht="20.35" customHeight="1" spans="1:5">
@@ -2537,16 +2531,16 @@
         <v>0</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/评分表.xlsx
+++ b/评分表.xlsx
@@ -2161,7 +2161,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomRight" activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333333333333" defaultRowHeight="18" customHeight="1" outlineLevelCol="4"/>
